--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334085</v>
+        <v>457896.9318625614</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13416934.75642859</v>
+        <v>13453092.50054953</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9261592.060181148</v>
+        <v>8642594.202988194</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8407132.682174526</v>
+        <v>8629125.807623886</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>43.07008646612813</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>64.33077982535487</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>27.74429141345882</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880636</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U5" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>36.74532229879939</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.348250578797477</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.969378985185513</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827331</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.41405905276482</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,11 +1132,11 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.70122005611973</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>141.4261508958551</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>127.6532552170204</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>34.10833718734042</v>
       </c>
       <c r="R10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>112.5089831863877</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>47.36165258445899</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.18049343598855</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>54.45803047044483</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>85.17289288835218</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.1459869481127</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>91.6822004894704</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>22.16757881235064</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>116.5525109439085</v>
       </c>
       <c r="D17" t="n">
-        <v>145.2481701217147</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>153.7665065845761</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>115.0138334144189</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>279.2782602710885</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>22.79319361026555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657088</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>127.6496787807638</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>87.93270968653111</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2321,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>186.8250998946407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>265.9318059937551</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2397,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.72165279050679</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>52.21253790264695</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613037</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.93382893561908</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2640,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100.2230060949672</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>174.1740127848306</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>243.2012226245564</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>112.4107936422627</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2922,7 +2924,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U30" t="n">
         <v>225.7871683969286</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>130.436216091016</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.24368752399459</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G33" t="n">
         <v>134.9994691657081</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>66.06306350756344</v>
+        <v>164.2532214802696</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>362.5726364766792</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>57.91073356940661</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.05801487789201</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>129.1643093334208</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>16.34825474388639</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.96291768620056</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5495062926533</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>139.5831982821786</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>26.38956926516234</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>101.738483358</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>191.3636734074875</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247818</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>142.4274484045733</v>
       </c>
       <c r="H46" t="n">
-        <v>10.71807528107133</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323102</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158254</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>53.10181779183023</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458396</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652797</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652797</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652797</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652797</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652797</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652797</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652797</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487949</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8624079336487</v>
+        <v>411.0305323324432</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>262.7011170913233</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>262.7011170913233</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>114.3717018502035</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>114.3717018502035</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>114.3717018502035</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024216</v>
+        <v>12.36141687342361</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>111.9554248488221</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>247.5338027825024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>392.911462660324</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>511.1831359408227</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>685.1217629831031</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T3" t="n">
-        <v>685.1217629831031</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="U3" t="n">
-        <v>685.1217629831031</v>
+        <v>411.0305323324432</v>
       </c>
       <c r="V3" t="n">
-        <v>685.1217629831031</v>
+        <v>411.0305323324432</v>
       </c>
       <c r="W3" t="n">
-        <v>495.7019779666183</v>
+        <v>411.0305323324432</v>
       </c>
       <c r="X3" t="n">
-        <v>306.2821929501335</v>
+        <v>411.0305323324432</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.8624079336487</v>
+        <v>411.0305323324432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678498</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058947</v>
+        <v>53.10181779183021</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735304</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652797</v>
+        <v>500.2410732550301</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652797</v>
+        <v>351.9116580139103</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652797</v>
+        <v>203.5822427727904</v>
       </c>
       <c r="U5" t="n">
-        <v>583.26140202276</v>
+        <v>55.25282753167056</v>
       </c>
       <c r="V5" t="n">
-        <v>583.26140202276</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="W5" t="n">
-        <v>583.26140202276</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062752</v>
+        <v>18.13634036116612</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897904</v>
+        <v>18.13634036116612</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.4710233342118</v>
+        <v>142.396238631475</v>
       </c>
       <c r="C6" t="n">
-        <v>179.4710233342118</v>
+        <v>142.396238631475</v>
       </c>
       <c r="D6" t="n">
-        <v>30.53661367296054</v>
+        <v>142.396238631475</v>
       </c>
       <c r="E6" t="n">
-        <v>30.53661367296054</v>
+        <v>142.396238631475</v>
       </c>
       <c r="F6" t="n">
-        <v>30.53661367296054</v>
+        <v>137.3766638989644</v>
       </c>
       <c r="G6" t="n">
-        <v>30.53661367296054</v>
+        <v>137.3766638989644</v>
       </c>
       <c r="H6" t="n">
-        <v>30.53661367296054</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296054</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024216</v>
+        <v>51.36582106616817</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415667</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>286.5382069752471</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>431.9158668530687</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>511.1831359408226</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>586.7735145200479</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487949</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="W6" t="n">
-        <v>560.6825636487949</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="X6" t="n">
-        <v>371.2627786323102</v>
+        <v>142.396238631475</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158254</v>
+        <v>142.396238631475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>14.12595803543243</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>19.89179156510274</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>33.37805236665712</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.26277863231</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="C8" t="n">
-        <v>371.26277863231</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="D8" t="n">
-        <v>371.26277863231</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="E8" t="n">
-        <v>371.26277863231</v>
+        <v>210.8831693494282</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513809</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823977</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="X8" t="n">
-        <v>560.6825636487947</v>
+        <v>400.3029543659129</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487947</v>
+        <v>400.3029543659129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="C9" t="n">
-        <v>607.2476507906783</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="D9" t="n">
-        <v>458.313241129427</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="E9" t="n">
-        <v>299.0757861239715</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>212.0407825994337</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I9" t="n">
         <v>15.00204697330559</v>
@@ -4884,49 +4886,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264278</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652795</v>
+        <v>547.9951255890335</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652795</v>
+        <v>358.5753405725487</v>
       </c>
     </row>
     <row r="10">
@@ -4966,22 +4968,22 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>49.45491281910401</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R10" t="n">
         <v>15.00204697330559</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>724.1209589374062</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>355.1584419969945</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>355.1584419969945</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>355.1584419969945</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>355.1584419969945</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>355.1584419969945</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.0557368508833</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622243</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.541994494451</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554185</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952496</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089549</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450163</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450163</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2340.739982070541</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2227.094544508534</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2227.094544508534</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>1874.325889238419</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>1500.86013097734</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1110.720799001528</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>727.9901463855672</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>553.5371171044402</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>404.6027074431889</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>245.3652524377334</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>98.8306944646184</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900325</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900325</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726238</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.29722493079</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.29722493079</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>1801.206747336066</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1566.054639104324</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1311.817282376122</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1103.965782170589</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.2054834056353</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>644.0659310639644</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>644.0659310639644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>644.0659310639644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>620.6512912296325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>473.7613437317221</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>305.7701198914046</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9889085973923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900325</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>481.332661133576</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750215</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639644</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V13" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W13" t="n">
-        <v>644.0659310639644</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X13" t="n">
-        <v>644.0659310639644</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y13" t="n">
-        <v>644.0659310639644</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1399.327137149149</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C14" t="n">
-        <v>1030.364620208738</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D14" t="n">
-        <v>1030.364620208738</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E14" t="n">
-        <v>1030.364620208738</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>619.3787154191302</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>203.663355438006</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900325</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936273</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>440.055736850883</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952496</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089549</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450163</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450163</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450163</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450163</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2549.532067450163</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2549.532067450163</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2176.066309189083</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1785.926977213271</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>533.615535296837</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>359.1625060157101</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>210.2280963544588</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>50.99064134900325</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>50.99064134900325</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900325</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900325</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726238</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>1893.469929230748</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.440419570033</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1606.832136247336</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1371.680028015593</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1117.442671287392</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>909.5911710818589</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>701.830872316905</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>644.0659310639644</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>644.0659310639644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>644.0659310639644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>496.1528374815713</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>473.7613437317221</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>305.7701198914046</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9889085973923</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900325</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900325</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>481.332661133576</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750215</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639644</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.0659310639644</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796265</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392149</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5513,16 +5515,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5595,25 +5597,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.8318200529674</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
         <v>66.51211643218343</v>
@@ -5671,52 +5673,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W19" t="n">
-        <v>631.4698357812244</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X19" t="n">
-        <v>403.4802848832071</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.4802848832071</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5783,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3192.291725247109</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,49 +5834,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2471.23093222317</v>
+        <v>195.4511859077025</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S22" t="n">
-        <v>3236.784902733888</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T22" t="n">
-        <v>3015.018287303414</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U22" t="n">
-        <v>2725.915420429057</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V22" t="n">
-        <v>2471.23093222317</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W22" t="n">
-        <v>2471.23093222317</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="X22" t="n">
-        <v>2471.23093222317</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="Y22" t="n">
-        <v>2471.23093222317</v>
+        <v>377.0996507379422</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796265</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8079389392149</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D23" t="n">
-        <v>364.0957168234162</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E23" t="n">
-        <v>364.0957168234162</v>
+        <v>746.1160070740689</v>
       </c>
       <c r="F23" t="n">
-        <v>364.0957168234162</v>
+        <v>335.1301022844613</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5987,22 +5989,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6020,19 +6022,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
         <v>767.0908251999817</v>
@@ -6072,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2815.396072428681</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C25" t="n">
-        <v>2646.459889500774</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.459889500774</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.459889500774</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.459889500774</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.188651572211</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X25" t="n">
-        <v>3036.188651572211</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y25" t="n">
-        <v>2815.396072428681</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3296.379731775211</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.849255049048</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2711.786367705477</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.017712435363</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.551954174283</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.412622198471</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C28" t="n">
-        <v>2789.050408260786</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D28" t="n">
-        <v>2638.93376884845</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="E28" t="n">
-        <v>2638.93376884845</v>
+        <v>481.6674995314927</v>
       </c>
       <c r="F28" t="n">
-        <v>2638.93376884845</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435996</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>2957.986591188693</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y28" t="n">
-        <v>2957.986591188693</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1571.829289912211</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C29" t="n">
-        <v>1202.866772971799</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D29" t="n">
-        <v>1202.866772971799</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>817.078520373555</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3079.948020978306</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2748.885133634735</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2396.11647836462</v>
       </c>
       <c r="X29" t="n">
-        <v>1958.429129976333</v>
+        <v>2022.65072010354</v>
       </c>
       <c r="Y29" t="n">
-        <v>1958.429129976333</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2621.347571635505</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>2621.347571635505</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3104.021610739409</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3104.021610739409</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>3104.021610739409</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>2849.337122533522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>2849.337122533522</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X31" t="n">
-        <v>2621.347571635505</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y31" t="n">
-        <v>2621.347571635505</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6698,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2719.306689612892</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.840931351812</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2345.840931351812</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6767,13 @@
         <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2781.504163366323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="C34" t="n">
-        <v>2781.504163366323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="D34" t="n">
-        <v>2781.504163366323</v>
+        <v>3175.489182196834</v>
       </c>
       <c r="E34" t="n">
-        <v>2781.504163366323</v>
+        <v>3027.576088614441</v>
       </c>
       <c r="F34" t="n">
-        <v>2781.504163366323</v>
+        <v>2880.686141116531</v>
       </c>
       <c r="G34" t="n">
         <v>2714.773796186966</v>
@@ -6892,16 +6894,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X34" t="n">
-        <v>2781.504163366323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y34" t="n">
-        <v>2781.504163366323</v>
+        <v>3325.60582160917</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1569.101759311879</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1569.101759311879</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1569.101759311879</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1183.313506713635</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>772.3276019240275</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2719.306689612893</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2345.840931351813</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>1955.701599376001</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7120,25 +7122,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y37" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.525483338121</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C38" t="n">
-        <v>852.5629663977095</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D38" t="n">
-        <v>494.2972677909589</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3309.092432978983</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3055.56195625282</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2724.499068909249</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.730413639134</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.264655378055</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.125323402243</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7356,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T40" t="n">
-        <v>699.120390387711</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U40" t="n">
-        <v>410.0175235133546</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V40" t="n">
-        <v>410.0175235133546</v>
+        <v>287.2691934954696</v>
       </c>
       <c r="W40" t="n">
-        <v>410.0175235133546</v>
+        <v>287.2691934954696</v>
       </c>
       <c r="X40" t="n">
-        <v>410.0175235133546</v>
+        <v>287.2691934954696</v>
       </c>
       <c r="Y40" t="n">
-        <v>410.0175235133546</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1772.792895410228</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C41" t="n">
-        <v>1403.830378469817</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D41" t="n">
-        <v>1262.837248891859</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E41" t="n">
-        <v>877.0489962936143</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F41" t="n">
-        <v>466.0630915040068</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>966.248874840118</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1499.780779512042</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2046.559596570825</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2549.532067450162</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450162</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450162</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450162</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2549.532067450162</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2549.532067450162</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2159.39273547435</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.022379397928</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>751.569350116801</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>602.6349404555499</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500943</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769794</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095978</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746529</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900324</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396208</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326334</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803561</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="C43" t="n">
-        <v>616.2626638606483</v>
+        <v>241.0813405854476</v>
       </c>
       <c r="D43" t="n">
-        <v>616.2626638606483</v>
+        <v>241.0813405854476</v>
       </c>
       <c r="E43" t="n">
-        <v>468.3495702782552</v>
+        <v>93.16824700305446</v>
       </c>
       <c r="F43" t="n">
-        <v>321.4596227803448</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>153.7567861550638</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>905.3655307350048</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y43" t="n">
-        <v>616.2626638606483</v>
+        <v>410.0175235133545</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1399.327137149148</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C44" t="n">
-        <v>1399.327137149148</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D44" t="n">
-        <v>1041.061438542398</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>655.2731859441537</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>244.2872811545462</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>966.248874840118</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1499.780779512042</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2046.559596570825</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2549.532067450162</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X44" t="n">
-        <v>2176.066309189082</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y44" t="n">
-        <v>1785.92697721327</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095985</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746604</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326333</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>326.8454938236877</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C46" t="n">
-        <v>326.8454938236877</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D46" t="n">
-        <v>326.8454938236877</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E46" t="n">
-        <v>326.8454938236877</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F46" t="n">
-        <v>326.8454938236877</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="G46" t="n">
-        <v>159.1426571984067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>148.3163185306579</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>905.3655307350048</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>616.2626638606483</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>616.2626638606483</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>326.8454938236877</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X46" t="n">
-        <v>326.8454938236877</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.8454938236877</v>
+        <v>920.887005818185</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425669</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445883</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>15.26359063142547</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840831</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>284.6821720040068</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>25.86237789960711</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>10.79895936669232</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
-        <v>85.43946486559476</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>198.1246269604654</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459968</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3148989349955578</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22741,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>15.26359063142547</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840831</v>
       </c>
       <c r="U5" t="n">
-        <v>85.99672338893581</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>291.0069361713355</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.1849330710698</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>140.0998334081984</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>51.4739594949605</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714238</v>
+        <v>31.77141835213726</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U6" t="n">
-        <v>38.338181243771</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715755</v>
+        <v>58.92686411476885</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098444</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819752</v>
+        <v>28.07357741546447</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>0.3148989349954476</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22978,25 +22980,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474364</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482526</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>8.83843691495403</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.1748256855917</v>
+        <v>400.47932175567</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399025</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
@@ -23084,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>31.28234809246064</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23118,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
@@ -23160,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>124.0417279438992</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23200,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>34.57770336425685</v>
       </c>
       <c r="R10" t="n">
-        <v>80.60642335625593</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>138.537107230743</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>87.97836379332975</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.28670958487417</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.4690227430407</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>123.2534692105806</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>194.7445699524668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>232.0649678661462</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>149.9801356933986</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>134.1273723293056</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>123.2534692105806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2274111152248</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>248.720380827099</v>
       </c>
       <c r="D17" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>13.48031451405171</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23947,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>137.1238099094091</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>103.4555813923921</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>304.9590648598694</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>39.597142317864</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>101.8363156449108</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24209,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>167.8579417260423</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>144.9899196596983</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24260,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>137.3041554685214</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24421,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4971174863902</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>168.0688818921498</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>174.984141204001</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.19804192796406</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37493649133856</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.793949334345598</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>257.3203070362063</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>59.33280924042589</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>218.7656321186407</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.490154139486</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.96274475146478</v>
+        <v>1.772586778758608</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>48.34908917677427</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>90.70473944880575</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>225.1538233277209</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>252.766060738841</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>187.5697153957337</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>67.06289057282767</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0.0351470594414991</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>215.0998433385044</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>119.0314787577689</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>43.01653155632083</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>219.5580522459659</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>23.59835985445497</v>
       </c>
       <c r="H46" t="n">
-        <v>134.0369396332495</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>450003.7781529016</v>
+        <v>410542.7066028203</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449290.8157123647</v>
+        <v>410542.7066028203</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440797.9101211876</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733653.9550519205</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183698</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154280.4321212242</v>
+        <v>141373.3771836207</v>
       </c>
       <c r="C2" t="n">
-        <v>154097.098922229</v>
+        <v>141373.3771836207</v>
       </c>
       <c r="D2" t="n">
-        <v>151913.2089130692</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
-        <v>253816.5477575909</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="I2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="J2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="L2" t="n">
         <v>296136.8796318746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
         <v>296136.8796318745</v>
@@ -26350,10 +26352,10 @@
         <v>296136.8796318746</v>
       </c>
       <c r="O2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
-        <v>269166.3268217432</v>
+        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.80384074434</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.5628979792</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.8472779119</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>38421.40650613402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904868</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.270910017</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4442.552142992457</v>
+        <v>2237.920220320392</v>
       </c>
       <c r="C4" t="n">
-        <v>4259.218943997282</v>
+        <v>2237.920220320392</v>
       </c>
       <c r="D4" t="n">
-        <v>2075.328934837463</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>856.1472425380039</v>
+        <v>584.6469890061053</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117639</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117639</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542272</v>
+        <v>-457239.097790851</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661817</v>
+        <v>85416.33718427937</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661817</v>
+        <v>49048.27572587381</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141026</v>
+        <v>-405888.7515521927</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356333</v>
+        <v>221245.8920814753</v>
       </c>
       <c r="H6" t="n">
         <v>221245.8920814752</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814753</v>
+        <v>221245.8920814752</v>
       </c>
       <c r="J6" t="n">
-        <v>172180.9473529307</v>
+        <v>182824.4855753411</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814751</v>
+        <v>221245.892081475</v>
       </c>
       <c r="L6" t="n">
-        <v>221245.8920814751</v>
+        <v>210950.2853324264</v>
       </c>
       <c r="M6" t="n">
-        <v>109139.621171458</v>
+        <v>60789.45021359772</v>
       </c>
       <c r="N6" t="n">
         <v>221245.8920814751</v>
       </c>
       <c r="O6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814749</v>
       </c>
       <c r="P6" t="n">
-        <v>206163.3875488251</v>
+        <v>221245.8920814751</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572209</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625407</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625407</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26811,25 +26813,25 @@
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568352</v>
       </c>
       <c r="E3" t="n">
-        <v>382.9821786253485</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550452</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761127</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962208</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397522</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>146.8461210887084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761115</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962209</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761127</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962208</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397522</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>138.4613654251943</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332807</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766338</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>367.3212256695511</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961054</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611126</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339634</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206854</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>222.6641930179332</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050587</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297036</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055016</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179393</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864957</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>65.2856027012083</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674035</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113012</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31549,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31595,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31604,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31613,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31622,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071026</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>476.6838030999209</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135315</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953992</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -33278,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>632.2913935985155</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34147,13 +34149,13 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>632.2913935985155</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34384,13 +34386,13 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781471</v>
+        <v>0.6199264508352701</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592124</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>41.7718465704379</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718123</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>131.125993899784</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040809</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781471</v>
+        <v>40.01831452431463</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>80.06794857348879</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679324</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592408</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945191</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394256</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>13.62248565813573</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35261,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>307.235261952269</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497021</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616741</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>396.5249786285282</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37795,13 +37797,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>396.5249786285282</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38032,13 +38034,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
